--- a/biology/Virologie/Valganciclovir/Valganciclovir.xlsx
+++ b/biology/Virologie/Valganciclovir/Valganciclovir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le valganciclovir est un médicament antiviral agissant comme une prodrogue. Donné par voie orale, il est transformé en ganciclovir qui est la molécule active, ciblant le cytomégalovirus.
@@ -512,9 +524,11 @@
           <t>Pharmacocinétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La biodisponibilité est d'environ 40 %[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La biodisponibilité est d'environ 40 %.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chez le nouveau-né, il permet de traiter l'infection congénitale à cytomégalovirus, contribuant à améliorer les conséquences sur l'audition. Un traitement plus prolongé (six mois) semble améliorer le neurodéveloppement de l'enfant[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez le nouveau-né, il permet de traiter l'infection congénitale à cytomégalovirus, contribuant à améliorer les conséquences sur l'audition. Un traitement plus prolongé (six mois) semble améliorer le neurodéveloppement de l'enfant.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existe une chute des polynucléaires neutrophiles (neutropénie) dans plus d'un tiers des cas[2]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe une chute des polynucléaires neutrophiles (neutropénie) dans plus d'un tiers des cas. 
 </t>
         </is>
       </c>
